--- a/former_unicorns_list.xlsx
+++ b/former_unicorns_list.xlsx
@@ -37,10 +37,10 @@
     <t>country</t>
   </si>
   <si>
-    <t>last_valuation_n</t>
-  </si>
-  <si>
-    <t>exit_valuation_n</t>
+    <t>last_valuation_b</t>
+  </si>
+  <si>
+    <t>exit_valuation_b</t>
   </si>
   <si>
     <t>Facebook</t>
@@ -835,10 +835,10 @@
         <v>127</v>
       </c>
       <c r="H2">
-        <v>50000000000</v>
+        <v>50</v>
       </c>
       <c r="I2">
-        <v>104000000000</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -864,10 +864,10 @@
         <v>128</v>
       </c>
       <c r="H3">
-        <v>42000000000</v>
+        <v>42</v>
       </c>
       <c r="I3">
-        <v>238000000000</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -893,10 +893,10 @@
         <v>127</v>
       </c>
       <c r="H4">
-        <v>19300000000</v>
+        <v>19.3</v>
       </c>
       <c r="I4">
-        <v>24000000000</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -922,10 +922,10 @@
         <v>127</v>
       </c>
       <c r="H5">
-        <v>9100000000</v>
+        <v>9.1</v>
       </c>
       <c r="I5">
-        <v>7000000000</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -951,10 +951,10 @@
         <v>128</v>
       </c>
       <c r="H6">
-        <v>9000000000</v>
+        <v>9</v>
       </c>
       <c r="I6">
-        <v>7000000000</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -980,10 +980,10 @@
         <v>127</v>
       </c>
       <c r="H7">
-        <v>8000000000</v>
+        <v>8</v>
       </c>
       <c r="I7">
-        <v>14200000000</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1009,10 +1009,10 @@
         <v>127</v>
       </c>
       <c r="H8">
-        <v>6000000000</v>
+        <v>6</v>
       </c>
       <c r="I8">
-        <v>3600000000</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1038,10 +1038,10 @@
         <v>127</v>
       </c>
       <c r="H9">
-        <v>5000000000</v>
+        <v>5</v>
       </c>
       <c r="I9">
-        <v>5800000000</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1067,10 +1067,10 @@
         <v>127</v>
       </c>
       <c r="H10">
-        <v>4750000000</v>
+        <v>4.75</v>
       </c>
       <c r="I10">
-        <v>13000000000</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1096,10 +1096,10 @@
         <v>128</v>
       </c>
       <c r="H11">
-        <v>4400000000</v>
+        <v>4.4</v>
       </c>
       <c r="I11">
-        <v>5500000000</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1125,10 +1125,10 @@
         <v>129</v>
       </c>
       <c r="H12">
-        <v>4030000000</v>
+        <v>4.03</v>
       </c>
       <c r="I12">
-        <v>6700000000</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1154,10 +1154,10 @@
         <v>127</v>
       </c>
       <c r="H13">
-        <v>3800000000</v>
+        <v>3.8</v>
       </c>
       <c r="I13">
-        <v>8500000000</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1183,10 +1183,10 @@
         <v>130</v>
       </c>
       <c r="H14">
-        <v>3300000000</v>
+        <v>3.3</v>
       </c>
       <c r="I14">
-        <v>7020000000</v>
+        <v>7.02</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1212,10 +1212,10 @@
         <v>127</v>
       </c>
       <c r="H15">
-        <v>3000000000</v>
+        <v>3</v>
       </c>
       <c r="I15">
-        <v>3500000000</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1241,10 +1241,10 @@
         <v>127</v>
       </c>
       <c r="H16">
-        <v>3000000000</v>
+        <v>3</v>
       </c>
       <c r="I16">
-        <v>3100000000</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1270,10 +1270,10 @@
         <v>127</v>
       </c>
       <c r="H17">
-        <v>2400000000</v>
+        <v>2.4</v>
       </c>
       <c r="I17">
-        <v>1670000000</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1299,10 +1299,10 @@
         <v>127</v>
       </c>
       <c r="H18">
-        <v>2250000000</v>
+        <v>2.25</v>
       </c>
       <c r="I18">
-        <v>2960000000</v>
+        <v>2.96</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1328,10 +1328,10 @@
         <v>127</v>
       </c>
       <c r="H19">
-        <v>2050000000</v>
+        <v>2.05</v>
       </c>
       <c r="I19">
-        <v>3700000000</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1357,10 +1357,10 @@
         <v>127</v>
       </c>
       <c r="H20">
-        <v>2000000000</v>
+        <v>2</v>
       </c>
       <c r="I20">
-        <v>2400000000</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1386,10 +1386,10 @@
         <v>127</v>
       </c>
       <c r="H21">
-        <v>2000000000</v>
+        <v>2</v>
       </c>
       <c r="I21">
-        <v>1700000000</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1415,10 +1415,10 @@
         <v>128</v>
       </c>
       <c r="H22">
-        <v>2000000000</v>
+        <v>2</v>
       </c>
       <c r="I22">
-        <v>4600000000</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1444,10 +1444,10 @@
         <v>127</v>
       </c>
       <c r="H23">
-        <v>2000000000</v>
+        <v>2</v>
       </c>
       <c r="I23">
-        <v>2210000000</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1473,10 +1473,10 @@
         <v>131</v>
       </c>
       <c r="H24">
-        <v>1900000000</v>
+        <v>1.9</v>
       </c>
       <c r="I24">
-        <v>7600000000</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1502,10 +1502,10 @@
         <v>127</v>
       </c>
       <c r="H25">
-        <v>1600000000</v>
+        <v>1.6</v>
       </c>
       <c r="I25">
-        <v>12000000</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1531,10 +1531,10 @@
         <v>127</v>
       </c>
       <c r="H26">
-        <v>1500000000</v>
+        <v>1.5</v>
       </c>
       <c r="I26">
-        <v>3050000000</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1560,10 +1560,10 @@
         <v>127</v>
       </c>
       <c r="H27">
-        <v>1500000000</v>
+        <v>1.5</v>
       </c>
       <c r="I27">
-        <v>3300000000</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1589,7 +1589,7 @@
         <v>127</v>
       </c>
       <c r="H28">
-        <v>1500000000</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1615,10 +1615,10 @@
         <v>127</v>
       </c>
       <c r="H29">
-        <v>1500000000</v>
+        <v>1.5</v>
       </c>
       <c r="I29">
-        <v>19000000000</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1644,10 +1644,10 @@
         <v>127</v>
       </c>
       <c r="H30">
-        <v>1400000000</v>
+        <v>1.4</v>
       </c>
       <c r="I30">
-        <v>3900000000</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1673,10 +1673,10 @@
         <v>127</v>
       </c>
       <c r="H31">
-        <v>1350000000</v>
+        <v>1.35</v>
       </c>
       <c r="I31">
-        <v>1400000000</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1702,10 +1702,10 @@
         <v>127</v>
       </c>
       <c r="H32">
-        <v>1300000000</v>
+        <v>1.3</v>
       </c>
       <c r="I32">
-        <v>1400000000</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1731,10 +1731,10 @@
         <v>127</v>
       </c>
       <c r="H33">
-        <v>1200000000</v>
+        <v>1.2</v>
       </c>
       <c r="I33">
-        <v>425000000</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1760,10 +1760,10 @@
         <v>127</v>
       </c>
       <c r="H34">
-        <v>1150000000</v>
+        <v>1.15</v>
       </c>
       <c r="I34">
-        <v>15000000</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1789,10 +1789,10 @@
         <v>127</v>
       </c>
       <c r="H35">
-        <v>1150000000</v>
+        <v>1.15</v>
       </c>
       <c r="I35">
-        <v>250000000</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1818,10 +1818,10 @@
         <v>127</v>
       </c>
       <c r="H36">
-        <v>1110000000</v>
+        <v>1.11</v>
       </c>
       <c r="I36">
-        <v>2650000000</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1847,10 +1847,10 @@
         <v>127</v>
       </c>
       <c r="H37">
-        <v>1090000000</v>
+        <v>1.09</v>
       </c>
       <c r="I37">
-        <v>2400000000</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1876,10 +1876,10 @@
         <v>127</v>
       </c>
       <c r="H38">
-        <v>1080000000</v>
+        <v>1.08</v>
       </c>
       <c r="I38">
-        <v>1680000000</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1905,10 +1905,10 @@
         <v>127</v>
       </c>
       <c r="H39">
-        <v>1060000000</v>
+        <v>1.06</v>
       </c>
       <c r="I39">
-        <v>4300000000</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1934,10 +1934,10 @@
         <v>127</v>
       </c>
       <c r="H40">
-        <v>1030000000</v>
+        <v>1.03</v>
       </c>
       <c r="I40">
-        <v>1200000000</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1963,10 +1963,10 @@
         <v>127</v>
       </c>
       <c r="H41">
-        <v>1030000000</v>
+        <v>1.03</v>
       </c>
       <c r="I41">
-        <v>650000000</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1992,10 +1992,10 @@
         <v>127</v>
       </c>
       <c r="H42">
-        <v>1000000000</v>
+        <v>1</v>
       </c>
       <c r="I42">
-        <v>1110000000</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2021,10 +2021,10 @@
         <v>132</v>
       </c>
       <c r="H43">
-        <v>1000000000</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>1300000000</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2050,10 +2050,10 @@
         <v>127</v>
       </c>
       <c r="H44">
-        <v>1000000000</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>1540000000</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2079,10 +2079,10 @@
         <v>127</v>
       </c>
       <c r="H45">
-        <v>1000000000</v>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>1500000000</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2108,10 +2108,10 @@
         <v>127</v>
       </c>
       <c r="H46">
-        <v>1000000000</v>
+        <v>1</v>
       </c>
       <c r="I46">
-        <v>1420000000</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2137,10 +2137,10 @@
         <v>127</v>
       </c>
       <c r="H47">
-        <v>1000000000</v>
+        <v>1</v>
       </c>
       <c r="I47">
-        <v>1170000000</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2166,10 +2166,10 @@
         <v>133</v>
       </c>
       <c r="H48">
-        <v>1000000000</v>
+        <v>1</v>
       </c>
       <c r="I48">
-        <v>650000000</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2195,10 +2195,10 @@
         <v>127</v>
       </c>
       <c r="H49">
-        <v>2000000000</v>
+        <v>2</v>
       </c>
       <c r="I49">
-        <v>2000000000</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
